--- a/data/trans_camb/P44-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P44-Provincia-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P44-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P44-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; -2,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,92; 26,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,88; -2,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 12,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; -3,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,03; 17,13</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,47%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,72; -16,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,77; 292,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,28; -34,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,29; 192,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,75; -38,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,07; 190,28</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 15,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,99; 35,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 12,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,16; 31,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 10,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,61; 31,2</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>340,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>276,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,39%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,14; 358,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>141,73; 930,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,91; 215,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>117,38; 543,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 187,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>159,5; 544,98</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,12</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 15,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,68; 30,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 7,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,86; 26,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 9,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,47; 26,89</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>291,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>246,7%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,99; 282,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>126,31; 568,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,52; 116,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>105,81; 369,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 142,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>151,1; 369,16</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,23</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,06; 1,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 16,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; 2,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 12,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; 0,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 12,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,18%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,39%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,77%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 110,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; 460,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,63; 96,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,27; 441,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,62; 24,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 254,34</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,98</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,59</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 7,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,0; 27,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 6,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,33; 25,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 5,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,26; 24,61</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>207,02%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>391,66%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>281,02%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,58; 155,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,47; 560,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,02; 321,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,14; 1129,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,66; 112,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>136,76; 531,55</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,91</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,65</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 14,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,08; 35,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 7,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 32,71</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 9,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,99; 31,9</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,61%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>398,03%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>273,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>324,18%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,65; 310,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>181,41; 741,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 148,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,52; 555,26</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,07; 155,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>162,79; 526,97</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,25</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,45</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,67</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 2,81</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,58; 55,87</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 2,03</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,98; 37,34</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 1,21</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,42; 48,19</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,77%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>356,56%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>704,7%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,51%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>486,98%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,99; 35,61</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>188,43; 693,68</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,58; 71,61</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>396,15; 1370,62</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,81; 21,93</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>331,36; 802,16</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,98</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,6</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 4,77</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,42; 36,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 1,92</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,38; 23,57</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 2,66</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,09; 27,78</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,16%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>276,9%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>292,51%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 58,01</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>224,5; 414,82</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,54; 29,36</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>194,26; 380,05</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 34,72</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>232,81; 358,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P44-Provincia-trans_camb.xlsx
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>48,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>32,47</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 26,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,23; 57,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 13,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,78; 24,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 16,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,59; 38,57</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>596,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>340,05%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,56; 656,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>237,62; 1504,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,87; 223,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,2; 403,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,51; 247,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>180,76; 619,76</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>18,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>12,3</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 26,76</t>
+          <t>9,01; 26,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,39</t>
+          <t>2,16; 12,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 17,13</t>
+          <t>7,18; 17,32</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>129,54%</t>
+          <t>130,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>105,47%</t>
+          <t>106,81%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,77; 292,34</t>
+          <t>43,29; 291,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 192,99</t>
+          <t>14,65; 193,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,07; 190,28</t>
+          <t>45,84; 191,71</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>27,85</t>
+          <t>27,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,2</t>
+          <t>26,22</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 35,67</t>
+          <t>19,98; 35,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 31,58</t>
+          <t>17,2; 31,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,61; 31,2</t>
+          <t>20,57; 31,18</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>340,71%</t>
+          <t>340,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>276,99%</t>
+          <t>277,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>304,39%</t>
+          <t>304,66%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>141,73; 930,05</t>
+          <t>142,08; 930,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117,38; 543,5</t>
+          <t>117,25; 544,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>159,5; 544,98</t>
+          <t>160,04; 545,53</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,29</t>
+          <t>23,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,12</t>
+          <t>21,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,12</t>
+          <t>22,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,71</t>
+          <t>0,85; 16,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,68; 30,78</t>
+          <t>15,12; 31,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 7,97</t>
+          <t>-5,22; 8,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,86; 26,89</t>
+          <t>14,83; 28,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 9,7</t>
+          <t>0,29; 10,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,47; 26,89</t>
+          <t>17,46; 27,64</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>105,28%</t>
+          <t>107,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>291,8%</t>
+          <t>296,44%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>215,4%</t>
+          <t>235,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>246,7%</t>
+          <t>261,67%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,99; 282,23</t>
+          <t>-3,36; 415,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>126,31; 568,98</t>
+          <t>100,7; 717,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 116,97</t>
+          <t>-43,01; 161,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>105,81; 369,02</t>
+          <t>104,85; 530,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 142,36</t>
+          <t>0,19; 166,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>151,1; 369,16</t>
+          <t>141,44; 456,42</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,2</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 16,72</t>
+          <t>-1,53; 16,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 12,76</t>
+          <t>-1,02; 12,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 12,0</t>
+          <t>0,77; 11,97</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>107,39%</t>
+          <t>106,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 460,27</t>
+          <t>-16,8; 456,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 441,31</t>
+          <t>-11,97; 445,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,52; 254,34</t>
+          <t>3,02; 252,09</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>19,73</t>
+          <t>19,76</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18,98</t>
+          <t>18,93</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,59</t>
+          <t>19,61</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>10,0; 27,33</t>
+          <t>10,18; 27,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,33; 25,28</t>
+          <t>12,3; 25,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,61</t>
+          <t>14,25; 24,65</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>207,02%</t>
+          <t>207,32%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>391,66%</t>
+          <t>390,64%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>281,02%</t>
+          <t>281,31%</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>69,47; 560,26</t>
+          <t>69,63; 560,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>129,14; 1129,82</t>
+          <t>129,17; 1126,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>136,76; 531,55</t>
+          <t>137,18; 532,36</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>30,02</t>
+          <t>29,41</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>20,91</t>
+          <t>15,08</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>24,65</t>
+          <t>20,35</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>23,08; 35,86</t>
+          <t>21,89; 35,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,07; 32,71</t>
+          <t>-0,62; 32,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,99; 31,9</t>
+          <t>5,53; 31,63</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>398,03%</t>
+          <t>389,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>273,2%</t>
+          <t>196,96%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>324,18%</t>
+          <t>267,53%</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>181,41; 741,77</t>
+          <t>180,03; 733,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>68,52; 555,26</t>
+          <t>-4,75; 484,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>162,79; 526,97</t>
+          <t>77,16; 479,89</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>38,25</t>
+          <t>56,84</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,45</t>
+          <t>32,53</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>35,67</t>
+          <t>48,44</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>27,58; 55,87</t>
+          <t>28,34; 79,74</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>27,98; 37,34</t>
+          <t>28,12; 37,48</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>30,42; 48,19</t>
+          <t>30,82; 74,49</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>356,56%</t>
+          <t>529,81%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>704,7%</t>
+          <t>706,37%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>486,98%</t>
+          <t>661,38%</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>188,43; 693,68</t>
+          <t>241,99; 1334,45</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>396,15; 1370,62</t>
+          <t>397,08; 1378,25</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>331,36; 802,16</t>
+          <t>397,5; 1506,85</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>28,98</t>
+          <t>36,12</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>20,77</t>
+          <t>19,02</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>24,6</t>
+          <t>27,4</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>25,42; 36,0</t>
+          <t>25,89; 58,27</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,38; 23,57</t>
+          <t>10,63; 23,24</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21,09; 27,78</t>
+          <t>20,74; 40,38</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>304,16%</t>
+          <t>379,09%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>276,9%</t>
+          <t>253,56%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>292,51%</t>
+          <t>325,88%</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>224,5; 414,82</t>
+          <t>252,0; 738,16</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>194,26; 380,05</t>
+          <t>141,61; 345,24</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>232,81; 358,43</t>
+          <t>235,28; 492,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P44-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 26,02</t>
+          <t>4,74; 26,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,23; 57,66</t>
+          <t>37,87; 57,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 13,98</t>
+          <t>-4,58; 14,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 24,43</t>
+          <t>7,94; 24,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,39</t>
+          <t>2,84; 16,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,59; 38,57</t>
+          <t>25,11; 38,65</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,56; 656,12</t>
+          <t>28,42; 659,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>237,62; 1504,64</t>
+          <t>249,7; 1535,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 223,34</t>
+          <t>-34,3; 225,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,2; 403,75</t>
+          <t>42,05; 400,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 247,66</t>
+          <t>18,53; 258,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>180,76; 619,76</t>
+          <t>174,2; 646,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -2,22</t>
+          <t>-15,61; -2,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 26,88</t>
+          <t>8,96; 27,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -2,7</t>
+          <t>-11,9; -2,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 12,47</t>
+          <t>1,7; 12,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -3,7</t>
+          <t>-11,62; -3,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 17,32</t>
+          <t>7,53; 17,63</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-83,72; -16,48</t>
+          <t>-82,38; -17,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,29; 291,54</t>
+          <t>47,44; 282,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,28; -34,49</t>
+          <t>-89,9; -27,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,65; 193,74</t>
+          <t>9,51; 187,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,75; -38,07</t>
+          <t>-80,13; -31,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,84; 191,71</t>
+          <t>50,33; 194,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 15,07</t>
+          <t>-0,7; 15,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,98; 35,62</t>
+          <t>19,07; 35,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 12,21</t>
+          <t>-4,59; 10,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,2; 31,64</t>
+          <t>16,53; 31,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,96</t>
+          <t>-0,57; 11,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,57; 31,18</t>
+          <t>20,91; 31,85</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 358,02</t>
+          <t>-10,89; 388,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>142,08; 930,86</t>
+          <t>124,47; 933,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 215,44</t>
+          <t>-35,92; 213,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117,25; 544,83</t>
+          <t>110,18; 608,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 187,71</t>
+          <t>-9,26; 170,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>160,04; 545,53</t>
+          <t>163,79; 563,3</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 16,5</t>
+          <t>1,25; 16,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,12; 31,65</t>
+          <t>15,32; 31,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 8,98</t>
+          <t>-5,49; 8,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,83; 28,43</t>
+          <t>15,31; 28,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 10,04</t>
+          <t>-0,18; 9,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 27,64</t>
+          <t>17,29; 27,47</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 415,7</t>
+          <t>2,38; 436,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>100,7; 717,92</t>
+          <t>105,6; 712,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 161,28</t>
+          <t>-46,42; 135,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>104,85; 530,58</t>
+          <t>106,42; 528,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 166,74</t>
+          <t>-2,87; 163,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>141,44; 456,42</t>
+          <t>145,1; 473,34</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,61</t>
+          <t>-12,53; 2,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 16,59</t>
+          <t>-0,81; 16,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 2,17</t>
+          <t>-10,16; 2,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 12,83</t>
+          <t>-1,94; 12,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 0,11</t>
+          <t>-9,44; 0,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 11,97</t>
+          <t>1,47; 12,34</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 110,18</t>
+          <t>-100,0; 143,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 456,75</t>
+          <t>-13,17; 453,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,63; 96,89</t>
+          <t>-90,05; 99,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 445,43</t>
+          <t>-17,42; 405,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-85,62; 24,76</t>
+          <t>-84,2; 27,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,02; 252,09</t>
+          <t>7,59; 275,95</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 7,71</t>
+          <t>-8,27; 7,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>10,18; 27,48</t>
+          <t>11,54; 27,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 6,99</t>
+          <t>-4,77; 7,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,3; 25,18</t>
+          <t>12,43; 24,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,49</t>
+          <t>-4,08; 5,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,25; 24,65</t>
+          <t>14,32; 24,81</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 155,16</t>
+          <t>-63,11; 136,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>69,63; 560,87</t>
+          <t>68,6; 507,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 321,67</t>
+          <t>-67,03; 281,21</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>129,17; 1126,23</t>
+          <t>129,38; 1308,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 112,37</t>
+          <t>-45,11; 126,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>137,18; 532,36</t>
+          <t>138,2; 544,15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 14,62</t>
+          <t>2,21; 14,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>21,89; 35,3</t>
+          <t>22,67; 36,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,57</t>
+          <t>-2,16; 7,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 32,43</t>
+          <t>-3,05; 32,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,35; 9,04</t>
+          <t>1,33; 9,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,53; 31,63</t>
+          <t>3,01; 31,24</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>18,65; 310,35</t>
+          <t>18,14; 290,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>180,03; 733,8</t>
+          <t>196,98; 794,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 148,06</t>
+          <t>-21,74; 143,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 484,02</t>
+          <t>-25,77; 501,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>13,07; 155,54</t>
+          <t>13,34; 163,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>77,16; 479,89</t>
+          <t>34,72; 470,83</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 2,81</t>
+          <t>-7,48; 2,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>28,34; 79,74</t>
+          <t>29,51; 79,77</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,03</t>
+          <t>-4,07; 2,07</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>28,12; 37,48</t>
+          <t>27,77; 36,97</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,21</t>
+          <t>-4,49; 1,36</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>30,82; 74,49</t>
+          <t>30,9; 71,97</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 35,61</t>
+          <t>-54,97; 39,14</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>241,99; 1334,45</t>
+          <t>250,89; 1183,5</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 71,61</t>
+          <t>-62,66; 79,1</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>397,08; 1378,25</t>
+          <t>392,32; 1332,61</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 21,93</t>
+          <t>-50,7; 25,46</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>397,5; 1506,85</t>
+          <t>386,91; 1445,5</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,77</t>
+          <t>-0,22; 4,69</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>25,89; 58,27</t>
+          <t>26,39; 56,99</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,92</t>
+          <t>-1,92; 1,8</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>10,63; 23,24</t>
+          <t>10,15; 23,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,66</t>
+          <t>-0,68; 2,54</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>20,74; 40,38</t>
+          <t>21,08; 40,55</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 58,01</t>
+          <t>-2,36; 57,89</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>252,0; 738,16</t>
+          <t>260,36; 647,21</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 29,36</t>
+          <t>-22,95; 27,72</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>141,61; 345,24</t>
+          <t>137,19; 336,2</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 34,72</t>
+          <t>-7,29; 34,17</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>235,28; 492,18</t>
+          <t>234,27; 487,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P44-Provincia-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
